--- a/team_specific_matrix/NJIT_B.xlsx
+++ b/team_specific_matrix/NJIT_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.223021582733813</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="C2">
-        <v>0.4676258992805755</v>
+        <v>0.4908536585365854</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03597122302158273</v>
+        <v>0.03353658536585366</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1438848920863309</v>
+        <v>0.1432926829268293</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1294964028776978</v>
+        <v>0.1128048780487805</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01492537313432836</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="C3">
-        <v>0.01492537313432836</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02985074626865672</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7089552238805971</v>
+        <v>0.7168674698795181</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2313432835820896</v>
+        <v>0.2289156626506024</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.06</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6428571428571429</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04972375690607735</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005524861878453038</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05524861878453038</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3259668508287293</v>
+        <v>0.3051643192488263</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02209944751381215</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2154696132596685</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="R6">
-        <v>0.0718232044198895</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="S6">
-        <v>0.2541436464088398</v>
+        <v>0.2816901408450704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03246753246753246</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04545454545454546</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1298701298701299</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006493506493506494</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1753246753246753</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="R7">
-        <v>0.1038961038961039</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="S7">
-        <v>0.3636363636363636</v>
+        <v>0.3563218390804598</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1396825396825397</v>
+        <v>0.1293800539083558</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0253968253968254</v>
+        <v>0.02425876010781671</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05714285714285714</v>
+        <v>0.06199460916442048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1301587301587302</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009523809523809525</v>
+        <v>0.008086253369272238</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1365079365079365</v>
+        <v>0.1455525606469003</v>
       </c>
       <c r="R8">
-        <v>0.09523809523809523</v>
+        <v>0.1078167115902965</v>
       </c>
       <c r="S8">
-        <v>0.4063492063492063</v>
+        <v>0.3908355795148248</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0821917808219178</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0136986301369863</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06164383561643835</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1027397260273973</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00684931506849315</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.273972602739726</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="R9">
-        <v>0.0547945205479452</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="S9">
-        <v>0.4041095890410959</v>
+        <v>0.4067796610169492</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1257545271629779</v>
+        <v>0.1248959200666112</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02716297786720322</v>
+        <v>0.02830974188176519</v>
       </c>
       <c r="E10">
-        <v>0.001006036217303823</v>
+        <v>0.0008326394671107411</v>
       </c>
       <c r="F10">
-        <v>0.06941649899396378</v>
+        <v>0.07327227310574522</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1227364185110664</v>
+        <v>0.1232306411323897</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009054325955734407</v>
+        <v>0.009159034138218152</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2002012072434608</v>
+        <v>0.2014987510407993</v>
       </c>
       <c r="R10">
-        <v>0.06639839034205232</v>
+        <v>0.07660283097418817</v>
       </c>
       <c r="S10">
-        <v>0.3782696177062374</v>
+        <v>0.3621981681931724</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1544715447154472</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07723577235772358</v>
+        <v>0.0912280701754386</v>
       </c>
       <c r="K11">
-        <v>0.2235772357723577</v>
+        <v>0.2245614035087719</v>
       </c>
       <c r="L11">
-        <v>0.516260162601626</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02845528455284553</v>
+        <v>0.02807017543859649</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7575757575757576</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1893939393939394</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="K12">
-        <v>0.007575757575757576</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="L12">
-        <v>0.0303030303030303</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01515151515151515</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7391304347826086</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1739130434782609</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08695652173913043</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04516129032258064</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1096774193548387</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="I15">
-        <v>0.07741935483870968</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="J15">
-        <v>0.4193548387096774</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="K15">
-        <v>0.08387096774193549</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01935483870967742</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04516129032258064</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2</v>
+        <v>0.1736842105263158</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01298701298701299</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1883116883116883</v>
+        <v>0.193717277486911</v>
       </c>
       <c r="I16">
-        <v>0.06493506493506493</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="J16">
-        <v>0.4155844155844156</v>
+        <v>0.418848167539267</v>
       </c>
       <c r="K16">
-        <v>0.1103896103896104</v>
+        <v>0.1151832460732984</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01298701298701299</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="N16">
-        <v>0.006493506493506494</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="O16">
-        <v>0.02597402597402598</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1623376623376623</v>
+        <v>0.1413612565445026</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02906976744186046</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1511627906976744</v>
+        <v>0.1691176470588235</v>
       </c>
       <c r="I17">
-        <v>0.08139534883720931</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J17">
-        <v>0.4418604651162791</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="K17">
-        <v>0.1133720930232558</v>
+        <v>0.1053921568627451</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01453488372093023</v>
+        <v>0.01225490196078431</v>
       </c>
       <c r="N17">
-        <v>0.002906976744186046</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="O17">
-        <v>0.05523255813953488</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1104651162790698</v>
+        <v>0.1102941176470588</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007633587786259542</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1450381679389313</v>
+        <v>0.1588235294117647</v>
       </c>
       <c r="I18">
-        <v>0.08396946564885496</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="J18">
-        <v>0.4045801526717557</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="K18">
-        <v>0.08396946564885496</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1068702290076336</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1679389312977099</v>
+        <v>0.1529411764705882</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02605210420841683</v>
+        <v>0.02264808362369338</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1973947895791583</v>
+        <v>0.1898954703832753</v>
       </c>
       <c r="I19">
-        <v>0.08717434869739479</v>
+        <v>0.08797909407665505</v>
       </c>
       <c r="J19">
-        <v>0.3537074148296593</v>
+        <v>0.3632404181184669</v>
       </c>
       <c r="K19">
-        <v>0.1082164328657315</v>
+        <v>0.1088850174216028</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01402805611222445</v>
+        <v>0.01393728222996516</v>
       </c>
       <c r="N19">
-        <v>0.001002004008016032</v>
+        <v>0.0008710801393728223</v>
       </c>
       <c r="O19">
-        <v>0.07715430861723446</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1352705410821643</v>
+        <v>0.1332752613240418</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/NJIT_B.xlsx
+++ b/team_specific_matrix/NJIT_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2195121951219512</v>
+        <v>0.2044198895027624</v>
       </c>
       <c r="C2">
-        <v>0.4908536585365854</v>
+        <v>0.5248618784530387</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03353658536585366</v>
+        <v>0.03038674033149171</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1432926829268293</v>
+        <v>0.138121546961326</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1128048780487805</v>
+        <v>0.1022099447513812</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01807228915662651</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="C3">
-        <v>0.01204819277108434</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02409638554216868</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7168674698795181</v>
+        <v>0.7295918367346939</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2289156626506024</v>
+        <v>0.2193877551020408</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05633802816901409</v>
+        <v>0.05150214592274678</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004694835680751174</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06103286384976526</v>
+        <v>0.06866952789699571</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3051643192488263</v>
+        <v>0.3047210300429185</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0187793427230047</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2065727699530517</v>
+        <v>0.2103004291845494</v>
       </c>
       <c r="R6">
-        <v>0.06572769953051644</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="S6">
-        <v>0.2816901408450704</v>
+        <v>0.2746781115879828</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1494252873563219</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02873563218390805</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04597701149425287</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1436781609195402</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005747126436781609</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1781609195402299</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="R7">
-        <v>0.09195402298850575</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="S7">
-        <v>0.3563218390804598</v>
+        <v>0.3692307692307693</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1293800539083558</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02425876010781671</v>
+        <v>0.02364066193853428</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06199460916442048</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1320754716981132</v>
+        <v>0.115839243498818</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008086253369272238</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1455525606469003</v>
+        <v>0.1607565011820331</v>
       </c>
       <c r="R8">
-        <v>0.1078167115902965</v>
+        <v>0.1016548463356974</v>
       </c>
       <c r="S8">
-        <v>0.3908355795148248</v>
+        <v>0.3995271867612293</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07909604519774012</v>
+        <v>0.078125</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01129943502824859</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05084745762711865</v>
+        <v>0.046875</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1355932203389831</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005649717514124294</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2542372881355932</v>
+        <v>0.2552083333333333</v>
       </c>
       <c r="R9">
-        <v>0.05649717514124294</v>
+        <v>0.0625</v>
       </c>
       <c r="S9">
-        <v>0.4067796610169492</v>
+        <v>0.4114583333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1248959200666112</v>
+        <v>0.1259370314842579</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02830974188176519</v>
+        <v>0.02848575712143928</v>
       </c>
       <c r="E10">
-        <v>0.0008326394671107411</v>
+        <v>0.0007496251874062968</v>
       </c>
       <c r="F10">
-        <v>0.07327227310574522</v>
+        <v>0.0704647676161919</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1232306411323897</v>
+        <v>0.1199400299850075</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009159034138218152</v>
+        <v>0.008245877061469266</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2014987510407993</v>
+        <v>0.2061469265367316</v>
       </c>
       <c r="R10">
-        <v>0.07660283097418817</v>
+        <v>0.07721139430284858</v>
       </c>
       <c r="S10">
-        <v>0.3621981681931724</v>
+        <v>0.3628185907046477</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1473684210526316</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0912280701754386</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="K11">
-        <v>0.2245614035087719</v>
+        <v>0.2253968253968254</v>
       </c>
       <c r="L11">
-        <v>0.5087719298245614</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02807017543859649</v>
+        <v>0.0253968253968254</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7450980392156863</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.196078431372549</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="K12">
-        <v>0.006535947712418301</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="L12">
-        <v>0.0392156862745098</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0130718954248366</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1785714285714286</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1071428571428571</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04736842105263158</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1052631578947368</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="I15">
-        <v>0.08947368421052632</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="J15">
-        <v>0.4157894736842105</v>
+        <v>0.4265402843601896</v>
       </c>
       <c r="K15">
-        <v>0.07894736842105263</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02105263157894737</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06842105263157895</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1736842105263158</v>
+        <v>0.1658767772511848</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01047120418848168</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.193717277486911</v>
+        <v>0.1846846846846847</v>
       </c>
       <c r="I16">
-        <v>0.06806282722513089</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="J16">
-        <v>0.418848167539267</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="K16">
-        <v>0.1151832460732984</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02094240837696335</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="N16">
-        <v>0.005235602094240838</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="O16">
-        <v>0.02617801047120419</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1413612565445026</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02450980392156863</v>
+        <v>0.02365591397849462</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1691176470588235</v>
+        <v>0.178494623655914</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.07956989247311828</v>
       </c>
       <c r="J17">
-        <v>0.4411764705882353</v>
+        <v>0.4559139784946237</v>
       </c>
       <c r="K17">
-        <v>0.1053921568627451</v>
+        <v>0.0989247311827957</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01225490196078431</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N17">
-        <v>0.002450980392156863</v>
+        <v>0.002150537634408602</v>
       </c>
       <c r="O17">
-        <v>0.05147058823529412</v>
+        <v>0.04731182795698925</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1102941176470588</v>
+        <v>0.1032258064516129</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01176470588235294</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1588235294117647</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="I18">
-        <v>0.07647058823529412</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="J18">
-        <v>0.4235294117647059</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="K18">
-        <v>0.07058823529411765</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1058823529411765</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1529411764705882</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02264808362369338</v>
+        <v>0.02427564604541895</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1898954703832753</v>
+        <v>0.1918559122944401</v>
       </c>
       <c r="I19">
-        <v>0.08797909407665505</v>
+        <v>0.08692247454972592</v>
       </c>
       <c r="J19">
-        <v>0.3632404181184669</v>
+        <v>0.3625685199686766</v>
       </c>
       <c r="K19">
-        <v>0.1088850174216028</v>
+        <v>0.1049334377447142</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01393728222996516</v>
+        <v>0.01252936570086139</v>
       </c>
       <c r="N19">
-        <v>0.0008710801393728223</v>
+        <v>0.001566170712607674</v>
       </c>
       <c r="O19">
-        <v>0.07926829268292683</v>
+        <v>0.07909162098668755</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1332752613240418</v>
+        <v>0.1362568519968677</v>
       </c>
     </row>
   </sheetData>
